--- a/formula_tingkat_kesamaan_berita.xlsx
+++ b/formula_tingkat_kesamaan_berita.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>No</t>
   </si>
@@ -154,6 +154,10 @@
   </si>
   <si>
     <t>Padang</t>
+  </si>
+  <si>
+    <t>4.1 select content from berita 
+where content like '%april%'</t>
   </si>
 </sst>
 </file>
@@ -211,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -222,6 +226,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,201 +678,206 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>29</v>
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <v>2</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="1">
         <v>3</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
